--- a/نجع حمادىLocation.xlsx
+++ b/نجع حمادىLocation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Desktop\هام ارسال بعد  الانتها\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Committee\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="151">
   <si>
     <t>اسم العميل</t>
   </si>
@@ -474,6 +474,12 @@
   </si>
   <si>
     <t>26.063462, 32.211457</t>
+  </si>
+  <si>
+    <t>اسامه على</t>
+  </si>
+  <si>
+    <t>26.121711, 32.462678</t>
   </si>
 </sst>
 </file>
@@ -526,12 +532,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,13 +863,15 @@
       <c r="A2">
         <v>57</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6">
         <v>30303182701073</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>134</v>
       </c>
       <c r="G2" t="s">
@@ -872,13 +882,15 @@
       <c r="A3">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <v>29710012707939</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>135</v>
       </c>
       <c r="G3" t="s">
@@ -889,13 +901,15 @@
       <c r="A4">
         <v>53</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>29611212701147</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>137</v>
       </c>
       <c r="G4" t="s">
@@ -906,13 +920,15 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <v>27607242700418</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>138</v>
       </c>
       <c r="G5" t="s">
@@ -923,13 +939,15 @@
       <c r="A6">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>29905022705301</v>
       </c>
-      <c r="F6" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>136</v>
       </c>
       <c r="G6" t="s">
@@ -940,13 +958,15 @@
       <c r="A7">
         <v>45</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
         <v>28211192700171</v>
       </c>
-      <c r="F7" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
         <v>140</v>
       </c>
       <c r="G7" t="s">
@@ -957,13 +977,15 @@
       <c r="A8">
         <v>40</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
         <v>26811162800791</v>
       </c>
-      <c r="F8" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
         <v>136</v>
       </c>
       <c r="G8" t="s">
@@ -974,13 +996,15 @@
       <c r="A9">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
         <v>29906012706888</v>
       </c>
-      <c r="F9" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
         <v>146</v>
       </c>
       <c r="G9" t="s">
@@ -994,10 +1018,12 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>28411042701268</v>
       </c>
-      <c r="F10" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>139</v>
       </c>
       <c r="G10" t="s">
@@ -1011,10 +1037,12 @@
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>29504152700919</v>
       </c>
-      <c r="F11" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>145</v>
       </c>
       <c r="G11" t="s">
@@ -1028,10 +1056,12 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>28512242701344</v>
       </c>
-      <c r="F12" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>143</v>
       </c>
       <c r="G12" t="s">
@@ -1045,10 +1075,12 @@
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>27110282700095</v>
       </c>
-      <c r="F13" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>142</v>
       </c>
       <c r="G13" t="s">
@@ -1062,10 +1094,12 @@
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>27506042700749</v>
       </c>
-      <c r="F14" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>141</v>
       </c>
       <c r="G14" t="s">
@@ -1079,10 +1113,12 @@
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>28407262700991</v>
       </c>
-      <c r="F15" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>147</v>
       </c>
       <c r="G15" t="s">
@@ -1096,10 +1132,12 @@
       <c r="B16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>29901032702828</v>
       </c>
-      <c r="F16" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>148</v>
       </c>
       <c r="G16" t="s">
@@ -1113,10 +1151,12 @@
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>29805062700723</v>
       </c>
-      <c r="F17" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>144</v>
       </c>
       <c r="G17" t="s">
@@ -1127,19 +1167,19 @@
       <c r="A18">
         <v>29</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>29603012707075</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="3" t="str">
+      <c r="F18" s="2" t="str">
         <f t="shared" ref="F18:F58" si="0">CONCATENATE(D18," ",E18)</f>
         <v>26°00'39.7"n 32°18'10.7"e</v>
       </c>
@@ -1148,19 +1188,19 @@
       <c r="A19">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>28506272702639</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="3" t="str">
+      <c r="F19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°01'26.2"N 32°12'53.9"E</v>
       </c>
@@ -1169,19 +1209,19 @@
       <c r="A20">
         <v>51</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>26606052701329</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="3" t="str">
+      <c r="F20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°00'12.9"N 32°16'25.7"E</v>
       </c>
@@ -1190,19 +1230,19 @@
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>29209052701169</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="3" t="str">
+      <c r="F21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°03'22.6"N 32°17'46.4"E</v>
       </c>
@@ -1211,19 +1251,19 @@
       <c r="A22">
         <v>34</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>29303272701964</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="3" t="str">
+      <c r="F22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°00'23.3"N 32°17'17.8"E</v>
       </c>
@@ -1232,19 +1272,19 @@
       <c r="A23">
         <v>42</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>28807032701627</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="3" t="str">
+      <c r="F23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°02'04.3"N 32°13'55.7"E</v>
       </c>
@@ -1253,19 +1293,19 @@
       <c r="A24">
         <v>35</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>28412092701893</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="3" t="str">
+      <c r="F24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°02'05.5"N 32°13'59.8"E</v>
       </c>
@@ -1274,19 +1314,19 @@
       <c r="A25">
         <v>56</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>30311172702201</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="3" t="str">
+      <c r="F25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°00'35.8"N 32°13'09.0"E</v>
       </c>
@@ -1295,19 +1335,19 @@
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>27505112700958</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="3" t="str">
+      <c r="F26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°07'29.3"N 32°28'30.7"E</v>
       </c>
@@ -1316,19 +1356,19 @@
       <c r="A27">
         <v>52</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>29710152700608</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="3" t="str">
+      <c r="F27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°00'39.7"n 32°18'10.7"e</v>
       </c>
@@ -1337,19 +1377,19 @@
       <c r="A28">
         <v>8</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>27003032701052</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="3" t="str">
+      <c r="F28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°02'05.8"N 32°13'57.7"E</v>
       </c>
@@ -1358,19 +1398,19 @@
       <c r="A29">
         <v>39</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>29708042701205</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="3" t="str">
+      <c r="F29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°04'04.1"N 32°15'30.1"E</v>
       </c>
@@ -1379,19 +1419,19 @@
       <c r="A30">
         <v>32</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>26805122701146</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="3" t="str">
+      <c r="F30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°00'37.9"N 32°12'57.9"E</v>
       </c>
@@ -1400,19 +1440,19 @@
       <c r="A31">
         <v>21</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <v>29811142701259</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F31" t="str">
+      <c r="F31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°01'21.4"N 32°13'05.6"E</v>
       </c>
@@ -1421,19 +1461,19 @@
       <c r="A32">
         <v>47</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="3">
         <v>30111032700986</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F32" t="str">
+      <c r="F32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°02'18.5"N 32°17'48.5"E</v>
       </c>
@@ -1442,19 +1482,19 @@
       <c r="A33">
         <v>13</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="3">
         <v>29110242700561</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F33" t="str">
+      <c r="F33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°03'22.6"N 32°17'46.4"E</v>
       </c>
@@ -1463,19 +1503,19 @@
       <c r="A34">
         <v>49</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="3">
         <v>29307142701305</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F34" t="str">
+      <c r="F34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°03'26.4"N 32°14'15.7"E</v>
       </c>
@@ -1484,19 +1524,19 @@
       <c r="A35">
         <v>43</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="3">
         <v>29508242702088</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F35" t="str">
+      <c r="F35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°04'31.9"n 32°15'24.3"e</v>
       </c>
@@ -1505,19 +1545,19 @@
       <c r="A36">
         <v>37</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="3">
         <v>27710042701164</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F36" t="str">
+      <c r="F36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°03'52.6"N 32°20'47.8"E</v>
       </c>
@@ -1526,19 +1566,19 @@
       <c r="A37">
         <v>33</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="3">
         <v>27312132701079</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F37" t="str">
+      <c r="F37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°05'47.5"N 32°13'32.1"E</v>
       </c>
@@ -1547,19 +1587,19 @@
       <c r="A38">
         <v>44</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="3">
         <v>28808082702493</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F38" t="str">
+      <c r="F38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°02'04.4"N 32°13'55.4"E</v>
       </c>
@@ -1568,19 +1608,19 @@
       <c r="A39">
         <v>24</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="3">
         <v>29003142700873</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F39" t="str">
+      <c r="F39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°02'07.8"N 32°14'00.9"E</v>
       </c>
@@ -1589,19 +1629,19 @@
       <c r="A40">
         <v>50</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="3">
         <v>27402142700592</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F40" t="str">
+      <c r="F40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°01'10.7"n 32°17'07.3"e</v>
       </c>
@@ -1610,19 +1650,19 @@
       <c r="A41">
         <v>30</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="3">
         <v>29605132701189</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F41" t="str">
+      <c r="F41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°04'04.9"N 32°15'25.1"E</v>
       </c>
@@ -1631,19 +1671,19 @@
       <c r="A42">
         <v>11</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="3">
         <v>27106102701857</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F42" t="str">
+      <c r="F42" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°01'56.2"N 32°17'50.8"E</v>
       </c>
@@ -1652,19 +1692,19 @@
       <c r="A43">
         <v>17</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="3">
         <v>27708222700838</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F43" t="str">
+      <c r="F43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°01'56.2"N 32°17'50.8"E</v>
       </c>
@@ -1673,19 +1713,19 @@
       <c r="A44">
         <v>55</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="3">
         <v>30205202703564</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F44" t="str">
+      <c r="F44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°03'24.6"N 32°14'19.2"E</v>
       </c>
@@ -1694,19 +1734,19 @@
       <c r="A45">
         <v>26</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="4">
         <v>30105132701289</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F45" t="str">
+      <c r="F45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>26.067122"N, 32.297204"E</v>
       </c>
@@ -1715,19 +1755,19 @@
       <c r="A46">
         <v>27</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="3">
         <v>27212072700537</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F46" t="str">
+      <c r="F46" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26°01'06.6"N 32°14'26.6"E</v>
       </c>
@@ -1736,19 +1776,19 @@
       <c r="A47">
         <v>28</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="6">
         <v>29901232705996</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F47" t="str">
+      <c r="F47" s="5" t="str">
         <f t="shared" si="0"/>
         <v>26°02'18.5"N 32°17'48.5"E</v>
       </c>
@@ -1757,19 +1797,19 @@
       <c r="A48">
         <v>25</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="6">
         <v>29709120105076</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F48" t="str">
+      <c r="F48" s="5" t="str">
         <f t="shared" si="0"/>
         <v>26°04'48.0"N 32°22'08.0"E</v>
       </c>
@@ -1778,19 +1818,19 @@
       <c r="A49">
         <v>54</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="6">
         <v>30111112701754</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F49" t="str">
+      <c r="F49" s="5" t="str">
         <f t="shared" si="0"/>
         <v>26°01'26.2"N 32°12'53.9"E</v>
       </c>
@@ -1799,19 +1839,19 @@
       <c r="A50">
         <v>31</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="6">
         <v>27909092701051</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F50" t="str">
+      <c r="F50" s="5" t="str">
         <f t="shared" si="0"/>
         <v>26°03'18.2"N 32°14'19.9"E</v>
       </c>
@@ -1820,19 +1860,19 @@
       <c r="A51">
         <v>2</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="6">
         <v>28812292700199</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F51" t="str">
+      <c r="F51" s="5" t="str">
         <f t="shared" si="0"/>
         <v>26°02'07.8"N 32°14'00.9"E</v>
       </c>
@@ -1841,19 +1881,19 @@
       <c r="A52">
         <v>5</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="6">
         <v>27501042702171</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F52" t="str">
+      <c r="F52" s="5" t="str">
         <f t="shared" si="0"/>
         <v>26°00'57.0"N 32°12'21.6"E</v>
       </c>
@@ -1862,19 +1902,19 @@
       <c r="A53">
         <v>14</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="6">
         <v>29110262701084</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F53" t="str">
+      <c r="F53" s="5" t="str">
         <f t="shared" si="0"/>
         <v>26°01'11.2"N 32°14'32.5"E</v>
       </c>
@@ -1883,19 +1923,19 @@
       <c r="A54">
         <v>9</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="6">
         <v>29804042701255</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F54" t="str">
+      <c r="F54" s="5" t="str">
         <f t="shared" si="0"/>
         <v>26°03'24.5"N 32°17'37.6"E</v>
       </c>
@@ -1904,19 +1944,19 @@
       <c r="A55">
         <v>41</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="6">
         <v>30007052703033</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F55" t="str">
+      <c r="F55" s="5" t="str">
         <f t="shared" si="0"/>
         <v>26°07'23.5"N 32°27'54.6"E</v>
       </c>
@@ -1925,19 +1965,19 @@
       <c r="A56">
         <v>48</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="6">
         <v>27812132700644</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F56" t="str">
+      <c r="F56" s="5" t="str">
         <f t="shared" si="0"/>
         <v>26°04'04.9"N 32°15'25.1"E</v>
       </c>
@@ -1946,19 +1986,19 @@
       <c r="A57">
         <v>20</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="6">
         <v>29501262701369</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F57" t="str">
+      <c r="F57" s="5" t="str">
         <f t="shared" si="0"/>
         <v>26°00'59.6"N 32°14'50.3"E</v>
       </c>
@@ -1967,21 +2007,32 @@
       <c r="A58">
         <v>38</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="6">
         <v>27903042701272</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F58" t="str">
+      <c r="F58" s="5" t="str">
         <f t="shared" si="0"/>
         <v>26°01'56.2"N 32°17'50.8"E</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
